--- a/4 Bring Up/Rework Tracking.xlsx
+++ b/4 Bring Up/Rework Tracking.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Author</t>
   </si>
@@ -39,12 +39,60 @@
   <si>
     <t>Issue</t>
   </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>DDS Tone Shield</t>
+  </si>
+  <si>
+    <t>Rev 01</t>
+  </si>
+  <si>
+    <t>Header 2 and 3 are switched</t>
+  </si>
+  <si>
+    <t>Used jumper cable to connect the pins to the correct spots</t>
+  </si>
+  <si>
+    <t>5k package overlaps with header 2</t>
+  </si>
+  <si>
+    <t>Bent pot to float above the package at a right angle</t>
+  </si>
+  <si>
+    <t>Ordered wrong capacitor package size</t>
+  </si>
+  <si>
+    <t>Used Bipolar 22 uF capacitors instead of 25uf and 20uf</t>
+  </si>
+  <si>
+    <t>Capacitor pads are to small for capacitors used on hand</t>
+  </si>
+  <si>
+    <t>Soldered capacitors at an angle ontop of a pin to the ground plane</t>
+  </si>
+  <si>
+    <t>Dip switch input pin not connected to output pin</t>
+  </si>
+  <si>
+    <t>Used jumper cables to connect to attiny through another pin</t>
+  </si>
+  <si>
+    <t>Ground plane that was supposed to connect to capacitor ground is electrically isolated.</t>
+  </si>
+  <si>
+    <t>Added jump wire to connect ground plane to ground</t>
+  </si>
+  <si>
+    <t>Rev 03</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -61,16 +109,48 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -78,17 +158,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -390,12 +508,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1810"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="82.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
   </cols>
@@ -404,64 +524,149 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="4">
+        <v>42685</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="1">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="H8" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="H9" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="H10" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="H11" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="H12" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="H13" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
     </row>
@@ -5852,5 +6057,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>